--- a/assets/upload/upload_contacts_template/Digital1CRM_upload_contacts_new.xlsx
+++ b/assets/upload/upload_contacts_template/Digital1CRM_upload_contacts_new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>LEAD SOURCE &amp; DATE</t>
   </si>
@@ -55,13 +55,16 @@
   </si>
   <si>
     <t>Type (I or C)</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +79,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -101,16 +111,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N16" sqref="A2:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -424,9 +440,10 @@
     <col min="11" max="11" width="26.42578125" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="12.75">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="12.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,6 +483,54 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="L16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
